--- a/GEO/RNA-seq_PXGL.xlsx
+++ b/GEO/RNA-seq_PXGL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Charbel\Work_post_doc\naive_paper\GEO\GEO_GC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gael\Desktop\charbel_paper_github_v1\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6EC2F9-DD5A-4D02-A342-E7208CA16977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9641F315-CED0-46AD-B615-096C5756D10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="874" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="874" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Checklist" sheetId="12" r:id="rId1"/>
@@ -628,7 +628,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q33" authorId="0" shapeId="0" xr:uid="{BD6E6772-95A3-46A2-BD6F-DF0D6C3B1C93}">
+    <comment ref="Q33" authorId="0" shapeId="0" xr:uid="{4AE963B8-0239-49BF-AB64-57B1769C1167}">
       <text>
         <r>
           <rPr>
@@ -644,7 +644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R33" authorId="0" shapeId="0" xr:uid="{0F60EE06-13E2-4E08-A4F1-5C272396AC26}">
+    <comment ref="R33" authorId="0" shapeId="0" xr:uid="{3BBC56C0-912C-4CA4-8193-1C426BABB020}">
       <text>
         <r>
           <rPr>
@@ -5606,7 +5606,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="806">
   <si>
     <t>SAMPLES</t>
   </si>
@@ -8504,6 +8504,192 @@
   </si>
   <si>
     <t>XIST long non-coding RNA is responsible for X chromosome inactivation (XCI) in placental mammals, yet it accumulates on both X chromosomes in human female pre-implantation embryos without triggering X chromosome silencing. Here we used naïve hESCs to assess the function of XIST in shaping the X chromosome chromatin and transcriptional landscape during pre-implantation developmental stages. We show that XIST triggers the deposition of polycomb-mediated repressive histone modifications and attenuates transcription of most X-linked genes in a SPEN-dependent manner. Altogether, our study demonstrates that XIST is functional prior to XCI, confirms the existence of a transient process of X chromosome dosage compensation, and reveals that X chromosome inactivation and dampening rely on the same set of factors.</t>
+  </si>
+  <si>
+    <t>2d72c343986bb901d40ffc02592dce10</t>
+  </si>
+  <si>
+    <t>b12566baf2be828b87d3dd37b952eb11</t>
+  </si>
+  <si>
+    <t>3326578de201fd7bd129a19adc0a6284</t>
+  </si>
+  <si>
+    <t>828a0900053e42af15d90b30c3889d83</t>
+  </si>
+  <si>
+    <t>f591810cc0fafba1ca44fd6403773e49</t>
+  </si>
+  <si>
+    <t>0583f28b7e699762d8d0fc2206759b5d</t>
+  </si>
+  <si>
+    <t>0c91ab82df3b4fe00072b42d8ebab6d9</t>
+  </si>
+  <si>
+    <t>9a8a6b882d6ff6c55c29bd66d9a690fa</t>
+  </si>
+  <si>
+    <t>444b0d60695b8b209dfe8fbd9e8de519</t>
+  </si>
+  <si>
+    <t>95506db7845ead0244ebabf4ded1afaf</t>
+  </si>
+  <si>
+    <t>615578ae87d63a3d394ee125b41d3c19</t>
+  </si>
+  <si>
+    <t>0ce4e2e957e7c8fb848723e48a717c84</t>
+  </si>
+  <si>
+    <t>51316c130199395cfb553b01d0132d3a</t>
+  </si>
+  <si>
+    <t>dc37ab6a7ed3d50e0001a14fc9305999</t>
+  </si>
+  <si>
+    <t>824ed9d18e20278413ffc26763381c67</t>
+  </si>
+  <si>
+    <t>6c021b7b696f0f75b8a09f685de3fa84</t>
+  </si>
+  <si>
+    <t>f6fffaf49d878cab8d76e42f507a1fc7</t>
+  </si>
+  <si>
+    <t>a153d7b033d33ed3f5d2392acdca8550</t>
+  </si>
+  <si>
+    <t>05c41248b495fab3ec87a34896506cba</t>
+  </si>
+  <si>
+    <t>bc621d56d57cba274e74fa8300367842</t>
+  </si>
+  <si>
+    <t>a421d3f1b658650c7c075c2ffaee8777</t>
+  </si>
+  <si>
+    <t>40561416fb1b60a7b202fefb1eab9838</t>
+  </si>
+  <si>
+    <t>be9b47eda098b9e181c52f574858f41a</t>
+  </si>
+  <si>
+    <t>a283c1252de0cda2b1c03f816b16ee76</t>
+  </si>
+  <si>
+    <t>e593834d3d85bf1ececb8575ce7a01ae</t>
+  </si>
+  <si>
+    <t>51828e873cf4f57b15a7fdc68873cc38</t>
+  </si>
+  <si>
+    <t>2d6477842c57cba10adea25cccde227a</t>
+  </si>
+  <si>
+    <t>be99e50cfe99fcf1f24b5b6605d90351</t>
+  </si>
+  <si>
+    <t>cc397a39fad79f3ae437ff64d14f039f</t>
+  </si>
+  <si>
+    <t>b4dfbe876c59b201e26788b2f1228f66</t>
+  </si>
+  <si>
+    <t>md5sum_r1</t>
+  </si>
+  <si>
+    <t>md5sum_r2</t>
+  </si>
+  <si>
+    <t>ab4d7d1720aa86b9ad4f9ca4c17a35c4</t>
+  </si>
+  <si>
+    <t>1904beaf25c140139cc233e3aa03076a</t>
+  </si>
+  <si>
+    <t>cc04ba34a77f054d5f8bfe72ee9e2a1e</t>
+  </si>
+  <si>
+    <t>d878ad4e0fe91ceedffd4fd278c493dc</t>
+  </si>
+  <si>
+    <t>ea5f20eb162193fff8ac2d77a51c780a</t>
+  </si>
+  <si>
+    <t>48120a40c9c979d33d988d600ba45b6c</t>
+  </si>
+  <si>
+    <t>6f8f00acfde142982b22101b27cf8f71</t>
+  </si>
+  <si>
+    <t>e42ff4e501561b855c7f6e2cb3dbf03d</t>
+  </si>
+  <si>
+    <t>354c69726b23b430d273f4210f97ce60</t>
+  </si>
+  <si>
+    <t>57e9eb0ba80242d808c8672dbcf08ce9</t>
+  </si>
+  <si>
+    <t>b511002674745665ffd9f56c59611b3f</t>
+  </si>
+  <si>
+    <t>0168692a26c32e9f634e6b99bed839bd</t>
+  </si>
+  <si>
+    <t>f7667ea1ef7310a4037f21933aca0657</t>
+  </si>
+  <si>
+    <t>f68ca5cc6114cac09f34c8568515315d</t>
+  </si>
+  <si>
+    <t>815adb6b6dfcbc682f089ee860d4d046</t>
+  </si>
+  <si>
+    <t>feab2bc24677f3a3d8f1beb84a0e4543</t>
+  </si>
+  <si>
+    <t>d39e8aeaed0812e55cc0cce40b4ddd10</t>
+  </si>
+  <si>
+    <t>b0f69bd461fccd7e87e7551296681158</t>
+  </si>
+  <si>
+    <t>c6c537f660a11958a1515ee7b9e2db97</t>
+  </si>
+  <si>
+    <t>bed3f9991c62514053159804685a0bb5</t>
+  </si>
+  <si>
+    <t>d5d9abaaa56b222046c2f6ba85df3a38</t>
+  </si>
+  <si>
+    <t>bc1904f952164668bb0a2340e5eb9513</t>
+  </si>
+  <si>
+    <t>f4aa39ff23e637024348c94ee34ec846</t>
+  </si>
+  <si>
+    <t>2c4e28ce89ceeb2cc1c2e5d6f22e3f16</t>
+  </si>
+  <si>
+    <t>0101796ea7c51b483bb231e42261736f</t>
+  </si>
+  <si>
+    <t>cd339475abb2e513ee959574eb4b164b</t>
+  </si>
+  <si>
+    <t>5fa65850a6d8e62f740f7be25e774f4c</t>
+  </si>
+  <si>
+    <t>e1647087fb7ba551d33100d566b33823</t>
+  </si>
+  <si>
+    <t>811200cf2f39dcc7097aafd66ce0b4f4</t>
+  </si>
+  <si>
+    <t>0b9e2eaee61602415bf7d52569b5a84e</t>
   </si>
 </sst>
 </file>
@@ -9063,7 +9249,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -9351,6 +9537,18 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -9369,45 +9567,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="11" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="28">
-    <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
+    <cellStyle name="40 % - Accent1" xfId="3" builtinId="31"/>
     <cellStyle name="Accent5" xfId="18" builtinId="45"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Normal 3" xfId="27" xr:uid="{F4D64B01-3AA2-4CE5-A7EE-64332280C940}"/>
@@ -13723,41 +13912,41 @@
       <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="162.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="74.7109375" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="7"/>
+    <col min="1" max="1" width="162.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="74.6640625" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="103" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="99"/>
-    </row>
-    <row r="2" spans="1:8" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="107" t="s">
+      <c r="B1" s="103"/>
+    </row>
+    <row r="2" spans="1:8" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="107"/>
-    </row>
-    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
+      <c r="B3" s="102"/>
+    </row>
+    <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="108"/>
+      <c r="B4" s="99"/>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
-      <c r="B5" s="103"/>
-    </row>
-    <row r="6" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="107"/>
+      <c r="B5" s="107"/>
+    </row>
+    <row r="6" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -13765,7 +13954,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>280</v>
       </c>
@@ -13773,7 +13962,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>279</v>
       </c>
@@ -13781,7 +13970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>278</v>
       </c>
@@ -13791,7 +13980,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>277</v>
       </c>
@@ -13799,13 +13988,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="15" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="15" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>276</v>
       </c>
       <c r="B11" s="12"/>
     </row>
-    <row r="12" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>275</v>
       </c>
@@ -13813,7 +14002,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>274</v>
       </c>
@@ -13821,7 +14010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>282</v>
       </c>
@@ -13829,7 +14018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>281</v>
       </c>
@@ -13841,7 +14030,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:8" s="20" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="20" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>574</v>
       </c>
@@ -13853,80 +14042,80 @@
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="1:6" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="104"/>
-      <c r="B17" s="104"/>
+    <row r="17" spans="1:6" ht="45.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="108"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="100" t="s">
+    <row r="18" spans="1:6" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="104" t="s">
         <v>272</v>
       </c>
-      <c r="B18" s="101"/>
+      <c r="B18" s="105"/>
       <c r="C18" s="8"/>
       <c r="D18" s="13"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="102" t="s">
+    <row r="19" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="106" t="s">
         <v>577</v>
       </c>
-      <c r="B19" s="102"/>
-    </row>
-    <row r="20" spans="1:6" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="105" t="s">
+      <c r="B19" s="106"/>
+    </row>
+    <row r="20" spans="1:6" ht="136.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="100" t="s">
         <v>255</v>
       </c>
-      <c r="B20" s="105"/>
-    </row>
-    <row r="21" spans="1:6" ht="315" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="105" t="s">
+      <c r="B20" s="100"/>
+    </row>
+    <row r="21" spans="1:6" ht="315" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="100" t="s">
         <v>271</v>
       </c>
-      <c r="B21" s="105"/>
-    </row>
-    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="108"/>
-      <c r="B22" s="108"/>
-    </row>
-    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="108"/>
-      <c r="B24" s="108"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="108"/>
-      <c r="B25" s="108"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="108"/>
-      <c r="B26" s="108"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="108"/>
-      <c r="B27" s="108"/>
+      <c r="B21" s="100"/>
+    </row>
+    <row r="22" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="99"/>
+      <c r="B22" s="99"/>
+    </row>
+    <row r="23" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="99"/>
+      <c r="B24" s="99"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="99"/>
+      <c r="B25" s="99"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="99"/>
+      <c r="B26" s="99"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="99"/>
+      <c r="B27" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" location="categories" xr:uid="{D6250736-B96D-4C3E-A39D-F5873CF8B173}"/>
@@ -13954,42 +14143,42 @@
   </sheetPr>
   <dimension ref="A1:R116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="H38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R63" sqref="R63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="83.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="83.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="21" customWidth="1"/>
-    <col min="4" max="7" width="17.7109375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="21" customWidth="1"/>
+    <col min="4" max="7" width="17.6640625" style="21" customWidth="1"/>
     <col min="8" max="8" width="14" style="21" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="23.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="23.88671875" style="21" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="20" style="21" customWidth="1"/>
-    <col min="19" max="16384" width="83.7109375" style="21"/>
+    <col min="19" max="16384" width="83.6640625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="81" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="81" t="s">
         <v>380</v>
       </c>
@@ -13998,21 +14187,21 @@
       <c r="D4" s="82"/>
       <c r="E4" s="82"/>
     </row>
-    <row r="5" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="62"/>
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
       <c r="E5" s="62"/>
     </row>
-    <row r="6" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="63" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="62"/>
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
       <c r="D6" s="62"/>
       <c r="E6" s="62"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -14030,7 +14219,7 @@
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
     </row>
-    <row r="8" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>23</v>
       </c>
@@ -14050,7 +14239,7 @@
       <c r="O8" s="66"/>
       <c r="P8" s="66"/>
     </row>
-    <row r="9" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>33</v>
       </c>
@@ -14070,7 +14259,7 @@
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
     </row>
-    <row r="10" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>31</v>
       </c>
@@ -14089,7 +14278,7 @@
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>361</v>
       </c>
@@ -14097,7 +14286,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
         <v>362</v>
       </c>
@@ -14105,7 +14294,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="27" t="s">
         <v>363</v>
       </c>
@@ -14113,7 +14302,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>240</v>
       </c>
@@ -14121,7 +14310,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
         <v>240</v>
       </c>
@@ -14129,46 +14318,46 @@
         <v>632</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>240</v>
       </c>
       <c r="D16" s="48"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>240</v>
       </c>
       <c r="D17" s="48"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>367</v>
       </c>
       <c r="D18" s="48"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="68"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="68"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="68"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="68"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="68"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="68"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="68"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="69"/>
       <c r="B27" s="69"/>
       <c r="C27" s="69"/>
@@ -14186,7 +14375,7 @@
       <c r="O27" s="69"/>
       <c r="P27" s="69"/>
     </row>
-    <row r="28" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23" t="s">
         <v>0</v>
       </c>
@@ -14206,7 +14395,7 @@
       <c r="O28" s="65"/>
       <c r="P28" s="66"/>
     </row>
-    <row r="29" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
         <v>30</v>
       </c>
@@ -14226,7 +14415,7 @@
       <c r="O29" s="24"/>
       <c r="P29" s="25"/>
     </row>
-    <row r="30" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
         <v>256</v>
       </c>
@@ -14246,7 +14435,7 @@
       <c r="O30" s="24"/>
       <c r="P30" s="25"/>
     </row>
-    <row r="31" spans="1:16" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="90" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="88" t="s">
         <v>257</v>
       </c>
@@ -14266,7 +14455,7 @@
       <c r="O31" s="88"/>
       <c r="P31" s="89"/>
     </row>
-    <row r="32" spans="1:16" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="90" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="88" t="s">
         <v>258</v>
       </c>
@@ -14286,7 +14475,7 @@
       <c r="O32" s="88"/>
       <c r="P32" s="89"/>
     </row>
-    <row r="33" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="79" t="s">
         <v>364</v>
       </c>
@@ -14336,13 +14525,13 @@
         <v>3</v>
       </c>
       <c r="Q33" s="53" t="s">
-        <v>3</v>
+        <v>774</v>
       </c>
       <c r="R33" s="53" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>581</v>
       </c>
@@ -14380,8 +14569,14 @@
       <c r="P34" s="28" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q34" s="21" t="s">
+        <v>744</v>
+      </c>
+      <c r="R34" s="21" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>582</v>
       </c>
@@ -14419,8 +14614,14 @@
       <c r="P35" s="28" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q35" s="21" t="s">
+        <v>745</v>
+      </c>
+      <c r="R35" s="21" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>583</v>
       </c>
@@ -14458,8 +14659,14 @@
       <c r="P36" s="28" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q36" s="21" t="s">
+        <v>746</v>
+      </c>
+      <c r="R36" s="21" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>584</v>
       </c>
@@ -14497,8 +14704,14 @@
       <c r="P37" s="28" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q37" s="21" t="s">
+        <v>747</v>
+      </c>
+      <c r="R37" s="21" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>585</v>
       </c>
@@ -14536,8 +14749,14 @@
       <c r="P38" s="28" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q38" s="21" t="s">
+        <v>748</v>
+      </c>
+      <c r="R38" s="21" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>586</v>
       </c>
@@ -14575,8 +14794,14 @@
       <c r="P39" s="28" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q39" s="21" t="s">
+        <v>749</v>
+      </c>
+      <c r="R39" s="21" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>587</v>
       </c>
@@ -14614,8 +14839,14 @@
       <c r="P40" s="28" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q40" s="21" t="s">
+        <v>750</v>
+      </c>
+      <c r="R40" s="21" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>588</v>
       </c>
@@ -14653,8 +14884,14 @@
       <c r="P41" s="28" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q41" s="21" t="s">
+        <v>751</v>
+      </c>
+      <c r="R41" s="21" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>589</v>
       </c>
@@ -14692,8 +14929,14 @@
       <c r="P42" s="28" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q42" s="21" t="s">
+        <v>752</v>
+      </c>
+      <c r="R42" s="21" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>590</v>
       </c>
@@ -14731,8 +14974,14 @@
       <c r="P43" s="28" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q43" s="21" t="s">
+        <v>753</v>
+      </c>
+      <c r="R43" s="21" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>591</v>
       </c>
@@ -14770,8 +15019,14 @@
       <c r="P44" s="28" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q44" s="21" t="s">
+        <v>754</v>
+      </c>
+      <c r="R44" s="21" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>592</v>
       </c>
@@ -14809,8 +15064,14 @@
       <c r="P45" s="28" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q45" s="21" t="s">
+        <v>755</v>
+      </c>
+      <c r="R45" s="21" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>613</v>
       </c>
@@ -14848,8 +15109,14 @@
       <c r="P46" s="28" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q46" s="21" t="s">
+        <v>756</v>
+      </c>
+      <c r="R46" s="21" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>614</v>
       </c>
@@ -14887,8 +15154,14 @@
       <c r="P47" s="28" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q47" s="21" t="s">
+        <v>757</v>
+      </c>
+      <c r="R47" s="21" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>615</v>
       </c>
@@ -14926,8 +15199,14 @@
       <c r="P48" s="28" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q48" s="21" t="s">
+        <v>758</v>
+      </c>
+      <c r="R48" s="21" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>616</v>
       </c>
@@ -14965,8 +15244,14 @@
       <c r="P49" s="28" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q49" s="21" t="s">
+        <v>759</v>
+      </c>
+      <c r="R49" s="21" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>617</v>
       </c>
@@ -15004,8 +15289,14 @@
       <c r="P50" s="28" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q50" s="21" t="s">
+        <v>760</v>
+      </c>
+      <c r="R50" s="21" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>618</v>
       </c>
@@ -15043,8 +15334,14 @@
       <c r="P51" s="28" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q51" s="21" t="s">
+        <v>761</v>
+      </c>
+      <c r="R51" s="21" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>619</v>
       </c>
@@ -15082,8 +15379,14 @@
       <c r="P52" s="28" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q52" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="R52" s="21" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>620</v>
       </c>
@@ -15121,8 +15424,14 @@
       <c r="P53" s="28" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q53" s="21" t="s">
+        <v>763</v>
+      </c>
+      <c r="R53" s="21" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>621</v>
       </c>
@@ -15160,8 +15469,14 @@
       <c r="P54" s="28" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q54" s="21" t="s">
+        <v>764</v>
+      </c>
+      <c r="R54" s="21" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>696</v>
       </c>
@@ -15199,8 +15514,14 @@
       <c r="P55" s="28" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q55" s="21" t="s">
+        <v>765</v>
+      </c>
+      <c r="R55" s="21" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>697</v>
       </c>
@@ -15238,8 +15559,14 @@
       <c r="P56" s="28" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q56" s="21" t="s">
+        <v>766</v>
+      </c>
+      <c r="R56" s="21" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>698</v>
       </c>
@@ -15277,8 +15604,14 @@
       <c r="P57" s="28" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q57" s="21" t="s">
+        <v>767</v>
+      </c>
+      <c r="R57" s="21" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>707</v>
       </c>
@@ -15316,8 +15649,14 @@
       <c r="P58" s="28" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q58" s="21" t="s">
+        <v>768</v>
+      </c>
+      <c r="R58" s="21" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>702</v>
       </c>
@@ -15355,8 +15694,14 @@
       <c r="P59" s="28" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q59" s="109" t="s">
+        <v>769</v>
+      </c>
+      <c r="R59" s="21" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>703</v>
       </c>
@@ -15394,8 +15739,14 @@
       <c r="P60" s="28" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q60" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="R60" s="21" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>708</v>
       </c>
@@ -15433,8 +15784,14 @@
       <c r="P61" s="28" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q61" s="21" t="s">
+        <v>771</v>
+      </c>
+      <c r="R61" s="21" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>709</v>
       </c>
@@ -15472,8 +15829,14 @@
       <c r="P62" s="28" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q62" s="21" t="s">
+        <v>772</v>
+      </c>
+      <c r="R62" s="21" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>710</v>
       </c>
@@ -15511,8 +15874,14 @@
       <c r="P63" s="28" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q63" s="21" t="s">
+        <v>773</v>
+      </c>
+      <c r="R63" s="21" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="23" t="s">
         <v>29</v>
       </c>
@@ -15532,7 +15901,7 @@
       <c r="O65" s="65"/>
       <c r="P65" s="66"/>
     </row>
-    <row r="66" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="24" t="s">
         <v>359</v>
       </c>
@@ -15552,7 +15921,7 @@
       <c r="O66" s="24"/>
       <c r="P66" s="25"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="27" t="s">
         <v>373</v>
       </c>
@@ -15572,7 +15941,7 @@
       <c r="O67" s="30"/>
       <c r="P67" s="30"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="27" t="s">
         <v>374</v>
       </c>
@@ -15592,7 +15961,7 @@
       <c r="O68" s="30"/>
       <c r="P68" s="30"/>
     </row>
-    <row r="69" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A69" s="27" t="s">
         <v>375</v>
       </c>
@@ -15614,7 +15983,7 @@
       <c r="O69" s="30"/>
       <c r="P69" s="30"/>
     </row>
-    <row r="70" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A70" s="27" t="s">
         <v>376</v>
       </c>
@@ -15636,7 +16005,7 @@
       <c r="O70" s="30"/>
       <c r="P70" s="30"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" s="27" t="s">
         <v>381</v>
       </c>
@@ -15658,7 +16027,7 @@
       <c r="O71" s="30"/>
       <c r="P71" s="30"/>
     </row>
-    <row r="72" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="27"/>
       <c r="B72" s="29"/>
       <c r="C72" s="30"/>
@@ -15676,7 +16045,7 @@
       <c r="O72" s="30"/>
       <c r="P72" s="30"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" s="27" t="s">
         <v>377</v>
       </c>
@@ -15698,7 +16067,7 @@
       <c r="O73" s="30"/>
       <c r="P73" s="30"/>
     </row>
-    <row r="74" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
         <v>377</v>
       </c>
@@ -15720,7 +16089,7 @@
       <c r="O74" s="30"/>
       <c r="P74" s="30"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" s="27" t="s">
         <v>377</v>
       </c>
@@ -15742,7 +16111,7 @@
       <c r="O75" s="30"/>
       <c r="P75" s="30"/>
     </row>
-    <row r="76" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A76" s="27" t="s">
         <v>377</v>
       </c>
@@ -15764,7 +16133,7 @@
       <c r="O76" s="30"/>
       <c r="P76" s="30"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" s="27" t="s">
         <v>377</v>
       </c>
@@ -15784,7 +16153,7 @@
       <c r="O77" s="30"/>
       <c r="P77" s="30"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" s="27" t="s">
         <v>378</v>
       </c>
@@ -15806,7 +16175,7 @@
       <c r="O78" s="28"/>
       <c r="P78" s="28"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" s="27" t="s">
         <v>379</v>
       </c>
@@ -15828,7 +16197,7 @@
       <c r="O79" s="30"/>
       <c r="P79" s="30"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" s="27" t="s">
         <v>379</v>
       </c>
@@ -15848,7 +16217,7 @@
       <c r="O80" s="30"/>
       <c r="P80" s="30"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="73"/>
       <c r="B81" s="73"/>
       <c r="C81" s="73"/>
@@ -15866,7 +16235,7 @@
       <c r="O81" s="73"/>
       <c r="P81" s="73"/>
     </row>
-    <row r="82" spans="1:18" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="23" t="s">
         <v>5</v>
       </c>
@@ -15886,7 +16255,7 @@
       <c r="O82" s="65"/>
       <c r="P82" s="66"/>
     </row>
-    <row r="83" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="24" t="s">
         <v>34</v>
       </c>
@@ -15906,7 +16275,7 @@
       <c r="O83" s="24"/>
       <c r="P83" s="25"/>
     </row>
-    <row r="84" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="24" t="s">
         <v>259</v>
       </c>
@@ -15926,7 +16295,7 @@
       <c r="O84" s="24"/>
       <c r="P84" s="25"/>
     </row>
-    <row r="85" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="24" t="s">
         <v>35</v>
       </c>
@@ -15946,7 +16315,7 @@
       <c r="O85" s="24"/>
       <c r="P85" s="25"/>
     </row>
-    <row r="86" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="91" t="s">
         <v>6</v>
       </c>
@@ -15970,7 +16339,7 @@
       <c r="Q86" s="92"/>
       <c r="R86" s="92"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" s="28" t="s">
         <v>660</v>
       </c>
@@ -15978,7 +16347,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" s="28" t="s">
         <v>661</v>
       </c>
@@ -15986,7 +16355,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="28" t="s">
         <v>662</v>
       </c>
@@ -15994,7 +16363,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" s="28" t="s">
         <v>663</v>
       </c>
@@ -16002,7 +16371,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="28" t="s">
         <v>664</v>
       </c>
@@ -16010,7 +16379,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" s="28" t="s">
         <v>665</v>
       </c>
@@ -16018,7 +16387,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" s="28" t="s">
         <v>666</v>
       </c>
@@ -16026,7 +16395,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" s="28" t="s">
         <v>667</v>
       </c>
@@ -16034,7 +16403,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" s="28" t="s">
         <v>668</v>
       </c>
@@ -16042,7 +16411,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" s="28" t="s">
         <v>669</v>
       </c>
@@ -16050,7 +16419,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="28" t="s">
         <v>670</v>
       </c>
@@ -16058,7 +16427,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="28" t="s">
         <v>671</v>
       </c>
@@ -16066,7 +16435,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="28" t="s">
         <v>633</v>
       </c>
@@ -16074,7 +16443,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="28" t="s">
         <v>634</v>
       </c>
@@ -16082,7 +16451,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="28" t="s">
         <v>635</v>
       </c>
@@ -16090,7 +16459,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="28" t="s">
         <v>636</v>
       </c>
@@ -16098,7 +16467,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="28" t="s">
         <v>637</v>
       </c>
@@ -16106,7 +16475,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="28" t="s">
         <v>638</v>
       </c>
@@ -16114,7 +16483,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="28" t="s">
         <v>639</v>
       </c>
@@ -16122,7 +16491,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="28" t="s">
         <v>640</v>
       </c>
@@ -16130,7 +16499,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="28" t="s">
         <v>641</v>
       </c>
@@ -16138,7 +16507,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="28" t="s">
         <v>715</v>
       </c>
@@ -16146,7 +16515,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="28" t="s">
         <v>716</v>
       </c>
@@ -16154,7 +16523,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="28" t="s">
         <v>717</v>
       </c>
@@ -16162,7 +16531,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="28" t="s">
         <v>718</v>
       </c>
@@ -16170,7 +16539,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="28" t="s">
         <v>719</v>
       </c>
@@ -16178,7 +16547,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="28" t="s">
         <v>720</v>
       </c>
@@ -16186,7 +16555,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="28" t="s">
         <v>721</v>
       </c>
@@ -16194,7 +16563,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="28" t="s">
         <v>722</v>
       </c>
@@ -16202,7 +16571,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="28" t="s">
         <v>723</v>
       </c>
@@ -16310,39 +16679,39 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="21" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="21"/>
-    <col min="6" max="6" width="28.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="2" width="30.6640625" style="21" customWidth="1"/>
+    <col min="3" max="5" width="9.109375" style="21"/>
+    <col min="6" max="6" width="28.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35"/>
     </row>
-    <row r="7" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
         <v>248</v>
       </c>
@@ -16350,7 +16719,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>249</v>
       </c>
@@ -16380,31 +16749,31 @@
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="83.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="83.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42" style="21" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="21" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" style="21" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="65.6640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="21" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="21" customWidth="1"/>
     <col min="9" max="9" width="11" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="20.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="20.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="15" max="18" width="25" style="21" customWidth="1"/>
-    <col min="19" max="16384" width="83.7109375" style="21"/>
+    <col min="19" max="16384" width="83.6640625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="95" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>23</v>
       </c>
@@ -16424,7 +16793,7 @@
       <c r="O3" s="45"/>
       <c r="P3" s="45"/>
     </row>
-    <row r="4" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>33</v>
       </c>
@@ -16444,7 +16813,7 @@
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
     </row>
-    <row r="5" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>31</v>
       </c>
@@ -16463,7 +16832,7 @@
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
     </row>
-    <row r="6" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>361</v>
       </c>
@@ -16471,7 +16840,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="246" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="246" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>362</v>
       </c>
@@ -16479,7 +16848,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>363</v>
       </c>
@@ -16487,7 +16856,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>24</v>
       </c>
@@ -16495,7 +16864,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>24</v>
       </c>
@@ -16503,7 +16872,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>240</v>
       </c>
@@ -16511,7 +16880,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
         <v>240</v>
       </c>
@@ -16520,7 +16889,7 @@
       </c>
       <c r="D12" s="48"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
         <v>252</v>
       </c>
@@ -16528,39 +16897,39 @@
         <v>459</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
       <c r="B14" s="77"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="47"/>
       <c r="B15" s="77"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="47"/>
       <c r="B16" s="77"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="47"/>
       <c r="B17" s="77"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="47"/>
       <c r="B18" s="77"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="51"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="51"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="51"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="51"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="52"/>
       <c r="B23" s="52"/>
       <c r="C23" s="52"/>
@@ -16577,7 +16946,7 @@
       <c r="O23" s="52"/>
       <c r="P23" s="52"/>
     </row>
-    <row r="24" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="43" t="s">
         <v>0</v>
       </c>
@@ -16596,7 +16965,7 @@
       <c r="O24" s="44"/>
       <c r="P24" s="45"/>
     </row>
-    <row r="25" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>30</v>
       </c>
@@ -16615,7 +16984,7 @@
       <c r="O25" s="24"/>
       <c r="P25" s="25"/>
     </row>
-    <row r="26" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
         <v>256</v>
       </c>
@@ -16635,7 +17004,7 @@
       <c r="O26" s="24"/>
       <c r="P26" s="25"/>
     </row>
-    <row r="27" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
         <v>257</v>
       </c>
@@ -16655,7 +17024,7 @@
       <c r="O27" s="24"/>
       <c r="P27" s="25"/>
     </row>
-    <row r="28" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
         <v>258</v>
       </c>
@@ -16675,7 +17044,7 @@
       <c r="O28" s="24"/>
       <c r="P28" s="25"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="79" t="s">
         <v>364</v>
       </c>
@@ -16731,7 +17100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="29" t="s">
         <v>38</v>
       </c>
@@ -16778,7 +17147,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
         <v>39</v>
       </c>
@@ -16825,7 +17194,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>40</v>
       </c>
@@ -16872,7 +17241,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
         <v>41</v>
       </c>
@@ -16919,7 +17288,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
         <v>42</v>
       </c>
@@ -16966,7 +17335,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
         <v>43</v>
       </c>
@@ -17013,7 +17382,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
         <v>73</v>
       </c>
@@ -17060,7 +17429,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
         <v>77</v>
       </c>
@@ -17107,7 +17476,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="59"/>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
@@ -17125,7 +17494,7 @@
       <c r="O38" s="29"/>
       <c r="P38" s="29"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="42"/>
       <c r="B39" s="42"/>
       <c r="C39" s="42"/>
@@ -17142,7 +17511,7 @@
       <c r="O39" s="42"/>
       <c r="P39" s="42"/>
     </row>
-    <row r="40" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="43" t="s">
         <v>29</v>
       </c>
@@ -17162,7 +17531,7 @@
       <c r="O40" s="44"/>
       <c r="P40" s="45"/>
     </row>
-    <row r="41" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>32</v>
       </c>
@@ -17182,7 +17551,7 @@
       <c r="O41" s="24"/>
       <c r="P41" s="25"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>253</v>
       </c>
@@ -17204,7 +17573,7 @@
       <c r="O42" s="29"/>
       <c r="P42" s="29"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="47" t="s">
         <v>254</v>
       </c>
@@ -17226,7 +17595,7 @@
       <c r="O43" s="29"/>
       <c r="P43" s="29"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
         <v>254</v>
       </c>
@@ -17248,7 +17617,7 @@
       <c r="O44" s="29"/>
       <c r="P44" s="29"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="47" t="s">
         <v>375</v>
       </c>
@@ -17270,7 +17639,7 @@
       <c r="O45" s="29"/>
       <c r="P45" s="29"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="47" t="s">
         <v>376</v>
       </c>
@@ -17292,7 +17661,7 @@
       <c r="O46" s="29"/>
       <c r="P46" s="29"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="47" t="s">
         <v>381</v>
       </c>
@@ -17314,7 +17683,7 @@
       <c r="O47" s="29"/>
       <c r="P47" s="29"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="47"/>
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
@@ -17331,7 +17700,7 @@
       <c r="O48" s="29"/>
       <c r="P48" s="29"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
         <v>377</v>
       </c>
@@ -17353,7 +17722,7 @@
       <c r="O49" s="29"/>
       <c r="P49" s="29"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="47" t="s">
         <v>377</v>
       </c>
@@ -17375,7 +17744,7 @@
       <c r="O50" s="29"/>
       <c r="P50" s="29"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="47" t="s">
         <v>377</v>
       </c>
@@ -17397,7 +17766,7 @@
       <c r="O51" s="29"/>
       <c r="P51" s="29"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="47" t="s">
         <v>377</v>
       </c>
@@ -17419,7 +17788,7 @@
       <c r="O52" s="29"/>
       <c r="P52" s="29"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="47" t="s">
         <v>377</v>
       </c>
@@ -17439,7 +17808,7 @@
       <c r="O53" s="29"/>
       <c r="P53" s="29"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="47" t="s">
         <v>378</v>
       </c>
@@ -17461,7 +17830,7 @@
       <c r="O54" s="29"/>
       <c r="P54" s="29"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="47" t="s">
         <v>379</v>
       </c>
@@ -17482,7 +17851,7 @@
       <c r="O55" s="29"/>
       <c r="P55" s="29"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" s="47" t="s">
         <v>379</v>
       </c>
@@ -17504,7 +17873,7 @@
       <c r="O56" s="29"/>
       <c r="P56" s="29"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" s="48"/>
       <c r="B57" s="48"/>
       <c r="C57" s="48"/>
@@ -17522,7 +17891,7 @@
       <c r="O57" s="48"/>
       <c r="P57" s="48"/>
     </row>
-    <row r="58" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="43" t="s">
         <v>5</v>
       </c>
@@ -17542,7 +17911,7 @@
       <c r="O58" s="44"/>
       <c r="P58" s="45"/>
     </row>
-    <row r="59" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="24" t="s">
         <v>34</v>
       </c>
@@ -17562,7 +17931,7 @@
       <c r="O59" s="24"/>
       <c r="P59" s="25"/>
     </row>
-    <row r="60" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="24" t="s">
         <v>259</v>
       </c>
@@ -17582,7 +17951,7 @@
       <c r="O60" s="24"/>
       <c r="P60" s="25"/>
     </row>
-    <row r="61" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="24" t="s">
         <v>35</v>
       </c>
@@ -17602,7 +17971,7 @@
       <c r="O61" s="24"/>
       <c r="P61" s="25"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="58" t="s">
         <v>6</v>
       </c>
@@ -17624,7 +17993,7 @@
       <c r="O62" s="58"/>
       <c r="P62" s="58"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="21" t="s">
         <v>55</v>
       </c>
@@ -17632,7 +18001,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="21" t="s">
         <v>59</v>
       </c>
@@ -17640,7 +18009,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="21" t="s">
         <v>62</v>
       </c>
@@ -17648,7 +18017,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="21" t="s">
         <v>65</v>
       </c>
@@ -17656,7 +18025,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="21" t="s">
         <v>68</v>
       </c>
@@ -17664,7 +18033,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="21" t="s">
         <v>71</v>
       </c>
@@ -17672,7 +18041,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="21" t="s">
         <v>75</v>
       </c>
@@ -17680,7 +18049,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="21" t="s">
         <v>79</v>
       </c>
@@ -17709,35 +18078,35 @@
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="83.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="83.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="43.44140625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="65.6640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" style="21" customWidth="1"/>
     <col min="6" max="6" width="28" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="55.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="60.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="55.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="60.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9.44140625" style="21" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="25" style="21" customWidth="1"/>
-    <col min="19" max="16384" width="83.7109375" style="21"/>
+    <col min="19" max="16384" width="83.6640625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="95" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="87"/>
     </row>
-    <row r="3" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>23</v>
       </c>
@@ -17757,7 +18126,7 @@
       <c r="O3" s="66"/>
       <c r="P3" s="66"/>
     </row>
-    <row r="4" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>33</v>
       </c>
@@ -17777,7 +18146,7 @@
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
     </row>
-    <row r="5" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>31</v>
       </c>
@@ -17796,7 +18165,7 @@
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
     </row>
-    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>361</v>
       </c>
@@ -17804,7 +18173,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="151.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>362</v>
       </c>
@@ -17812,7 +18181,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>363</v>
       </c>
@@ -17820,7 +18189,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>240</v>
       </c>
@@ -17828,7 +18197,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>240</v>
       </c>
@@ -17836,7 +18205,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>240</v>
       </c>
@@ -17845,7 +18214,7 @@
       </c>
       <c r="D11" s="48"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
         <v>240</v>
       </c>
@@ -17853,7 +18222,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
         <v>240</v>
       </c>
@@ -17861,39 +18230,39 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="47" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="87"/>
     </row>
-    <row r="16" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="87"/>
     </row>
-    <row r="17" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="87"/>
     </row>
-    <row r="18" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="87"/>
     </row>
-    <row r="19" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="87"/>
     </row>
-    <row r="20" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="87"/>
     </row>
-    <row r="21" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="87"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="51"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="51"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="52"/>
       <c r="B24" s="52"/>
       <c r="C24" s="52"/>
@@ -17911,7 +18280,7 @@
       <c r="O24" s="52"/>
       <c r="P24" s="52"/>
     </row>
-    <row r="25" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="43" t="s">
         <v>0</v>
       </c>
@@ -17931,7 +18300,7 @@
       <c r="O25" s="44"/>
       <c r="P25" s="45"/>
     </row>
-    <row r="26" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
         <v>30</v>
       </c>
@@ -17951,7 +18320,7 @@
       <c r="O26" s="24"/>
       <c r="P26" s="25"/>
     </row>
-    <row r="27" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
         <v>256</v>
       </c>
@@ -17971,7 +18340,7 @@
       <c r="O27" s="24"/>
       <c r="P27" s="25"/>
     </row>
-    <row r="28" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
         <v>257</v>
       </c>
@@ -17991,7 +18360,7 @@
       <c r="O28" s="24"/>
       <c r="P28" s="25"/>
     </row>
-    <row r="29" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
         <v>258</v>
       </c>
@@ -18011,7 +18380,7 @@
       <c r="O29" s="24"/>
       <c r="P29" s="25"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="79" t="s">
         <v>364</v>
       </c>
@@ -18061,7 +18430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="29" t="s">
         <v>108</v>
       </c>
@@ -18102,7 +18471,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>118</v>
       </c>
@@ -18143,7 +18512,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
         <v>124</v>
       </c>
@@ -18184,7 +18553,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="29" t="s">
         <v>130</v>
       </c>
@@ -18225,7 +18594,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
         <v>136</v>
       </c>
@@ -18263,10 +18632,10 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B36" s="74"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="42"/>
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
@@ -18284,7 +18653,7 @@
       <c r="O37" s="42"/>
       <c r="P37" s="42"/>
     </row>
-    <row r="38" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="43" t="s">
         <v>29</v>
       </c>
@@ -18304,7 +18673,7 @@
       <c r="O38" s="44"/>
       <c r="P38" s="45"/>
     </row>
-    <row r="39" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>32</v>
       </c>
@@ -18324,7 +18693,7 @@
       <c r="O39" s="24"/>
       <c r="P39" s="25"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="47" t="s">
         <v>253</v>
       </c>
@@ -18346,7 +18715,7 @@
       <c r="O40" s="29"/>
       <c r="P40" s="29"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="47" t="s">
         <v>254</v>
       </c>
@@ -18366,7 +18735,7 @@
       <c r="O41" s="29"/>
       <c r="P41" s="29"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>375</v>
       </c>
@@ -18388,7 +18757,7 @@
       <c r="O42" s="29"/>
       <c r="P42" s="29"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="47" t="s">
         <v>376</v>
       </c>
@@ -18410,7 +18779,7 @@
       <c r="O43" s="29"/>
       <c r="P43" s="29"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
         <v>381</v>
       </c>
@@ -18432,7 +18801,7 @@
       <c r="O44" s="29"/>
       <c r="P44" s="29"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="47"/>
       <c r="B45" s="29"/>
       <c r="C45" s="29"/>
@@ -18450,7 +18819,7 @@
       <c r="O45" s="29"/>
       <c r="P45" s="29"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="47" t="s">
         <v>377</v>
       </c>
@@ -18472,7 +18841,7 @@
       <c r="O46" s="29"/>
       <c r="P46" s="29"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="47" t="s">
         <v>377</v>
       </c>
@@ -18494,7 +18863,7 @@
       <c r="O47" s="29"/>
       <c r="P47" s="29"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="47" t="s">
         <v>377</v>
       </c>
@@ -18516,7 +18885,7 @@
       <c r="O48" s="29"/>
       <c r="P48" s="29"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
         <v>377</v>
       </c>
@@ -18538,7 +18907,7 @@
       <c r="O49" s="29"/>
       <c r="P49" s="29"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="47" t="s">
         <v>377</v>
       </c>
@@ -18560,7 +18929,7 @@
       <c r="O50" s="29"/>
       <c r="P50" s="29"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="47" t="s">
         <v>377</v>
       </c>
@@ -18582,7 +18951,7 @@
       <c r="O51" s="29"/>
       <c r="P51" s="29"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="47" t="s">
         <v>378</v>
       </c>
@@ -18604,7 +18973,7 @@
       <c r="O52" s="29"/>
       <c r="P52" s="29"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="47" t="s">
         <v>379</v>
       </c>
@@ -18626,7 +18995,7 @@
       <c r="O53" s="29"/>
       <c r="P53" s="29"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="48"/>
       <c r="B54" s="48"/>
       <c r="C54" s="48"/>
@@ -18644,7 +19013,7 @@
       <c r="O54" s="48"/>
       <c r="P54" s="48"/>
     </row>
-    <row r="55" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="43" t="s">
         <v>5</v>
       </c>
@@ -18664,7 +19033,7 @@
       <c r="O55" s="44"/>
       <c r="P55" s="45"/>
     </row>
-    <row r="56" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="24" t="s">
         <v>34</v>
       </c>
@@ -18684,7 +19053,7 @@
       <c r="O56" s="24"/>
       <c r="P56" s="25"/>
     </row>
-    <row r="57" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="24" t="s">
         <v>259</v>
       </c>
@@ -18704,7 +19073,7 @@
       <c r="O57" s="24"/>
       <c r="P57" s="25"/>
     </row>
-    <row r="58" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="24" t="s">
         <v>35</v>
       </c>
@@ -18724,7 +19093,7 @@
       <c r="O58" s="24"/>
       <c r="P58" s="25"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" s="58" t="s">
         <v>6</v>
       </c>
@@ -18767,40 +19136,40 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="43.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="43.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" style="21"/>
-    <col min="2" max="2" width="65.7109375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" style="21" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="20.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="44.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="45.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="44.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="45.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="44.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="45.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="44.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="45.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="43.5703125" style="21"/>
+    <col min="1" max="1" width="43.5546875" style="21"/>
+    <col min="2" max="2" width="65.6640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="21" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" style="21" customWidth="1"/>
+    <col min="10" max="10" width="19.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="20.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="44.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="45.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="44.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="45.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="44.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="45.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="44.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="45.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="43.5546875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="95" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="95"/>
     </row>
-    <row r="3" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>23</v>
       </c>
@@ -18819,7 +19188,7 @@
       <c r="N3" s="66"/>
       <c r="O3" s="66"/>
     </row>
-    <row r="4" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>33</v>
       </c>
@@ -18838,7 +19207,7 @@
       <c r="N4" s="25"/>
       <c r="O4" s="25"/>
     </row>
-    <row r="5" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>31</v>
       </c>
@@ -18856,7 +19225,7 @@
       <c r="N5" s="25"/>
       <c r="O5" s="25"/>
     </row>
-    <row r="6" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>361</v>
       </c>
@@ -18864,7 +19233,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>362</v>
       </c>
@@ -18872,7 +19241,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>363</v>
       </c>
@@ -18880,7 +19249,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="27" t="s">
         <v>240</v>
       </c>
@@ -18888,7 +19257,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>240</v>
       </c>
@@ -18896,33 +19265,33 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="68"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="68"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="68"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="68"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="68"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="68"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="68"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="69"/>
       <c r="B19" s="69"/>
       <c r="C19" s="69"/>
@@ -18939,7 +19308,7 @@
       <c r="N19" s="69"/>
       <c r="O19" s="69"/>
     </row>
-    <row r="20" spans="1:26" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>0</v>
       </c>
@@ -18958,7 +19327,7 @@
       <c r="N20" s="65"/>
       <c r="O20" s="66"/>
     </row>
-    <row r="21" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>30</v>
       </c>
@@ -18977,7 +19346,7 @@
       <c r="N21" s="24"/>
       <c r="O21" s="25"/>
     </row>
-    <row r="22" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>256</v>
       </c>
@@ -18996,7 +19365,7 @@
       <c r="N22" s="24"/>
       <c r="O22" s="25"/>
     </row>
-    <row r="23" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>257</v>
       </c>
@@ -19016,7 +19385,7 @@
       <c r="O23" s="24"/>
       <c r="P23" s="25"/>
     </row>
-    <row r="24" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>258</v>
       </c>
@@ -19036,7 +19405,7 @@
       <c r="O24" s="24"/>
       <c r="P24" s="25"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="79" t="s">
         <v>364</v>
       </c>
@@ -19116,7 +19485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
         <v>38</v>
       </c>
@@ -19196,7 +19565,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29" t="s">
         <v>39</v>
       </c>
@@ -19276,7 +19645,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="28" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="29" t="s">
         <v>40</v>
       </c>
@@ -19356,7 +19725,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29" t="s">
         <v>41</v>
       </c>
@@ -19436,7 +19805,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A30" s="70"/>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
@@ -19453,7 +19822,7 @@
       <c r="N30" s="28"/>
       <c r="O30" s="28"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="71"/>
       <c r="B31" s="71"/>
       <c r="C31" s="71"/>
@@ -19470,7 +19839,7 @@
       <c r="N31" s="71"/>
       <c r="O31" s="71"/>
     </row>
-    <row r="32" spans="1:26" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23" t="s">
         <v>29</v>
       </c>
@@ -19489,7 +19858,7 @@
       <c r="N32" s="65"/>
       <c r="O32" s="66"/>
     </row>
-    <row r="33" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
         <v>32</v>
       </c>
@@ -19508,7 +19877,7 @@
       <c r="N33" s="24"/>
       <c r="O33" s="25"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="27" t="s">
         <v>253</v>
       </c>
@@ -19526,7 +19895,7 @@
       <c r="N34" s="30"/>
       <c r="O34" s="30"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="27" t="s">
         <v>254</v>
       </c>
@@ -19544,7 +19913,7 @@
       <c r="N35" s="30"/>
       <c r="O35" s="30"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="27" t="s">
         <v>254</v>
       </c>
@@ -19562,7 +19931,7 @@
       <c r="N36" s="30"/>
       <c r="O36" s="30"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="47" t="s">
         <v>375</v>
       </c>
@@ -19583,7 +19952,7 @@
       <c r="N37" s="30"/>
       <c r="O37" s="30"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
         <v>376</v>
       </c>
@@ -19604,7 +19973,7 @@
       <c r="N38" s="30"/>
       <c r="O38" s="30"/>
     </row>
-    <row r="39" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
         <v>381</v>
       </c>
@@ -19625,7 +19994,7 @@
       <c r="N39" s="30"/>
       <c r="O39" s="30"/>
     </row>
-    <row r="40" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="27"/>
       <c r="B40" s="29"/>
       <c r="C40" s="30"/>
@@ -19642,7 +20011,7 @@
       <c r="N40" s="30"/>
       <c r="O40" s="30"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="47" t="s">
         <v>377</v>
       </c>
@@ -19663,7 +20032,7 @@
       <c r="N41" s="30"/>
       <c r="O41" s="30"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>377</v>
       </c>
@@ -19681,7 +20050,7 @@
       <c r="N42" s="30"/>
       <c r="O42" s="30"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="47" t="s">
         <v>377</v>
       </c>
@@ -19699,7 +20068,7 @@
       <c r="N43" s="30"/>
       <c r="O43" s="30"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
         <v>377</v>
       </c>
@@ -19717,7 +20086,7 @@
       <c r="N44" s="30"/>
       <c r="O44" s="30"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="47" t="s">
         <v>377</v>
       </c>
@@ -19735,7 +20104,7 @@
       <c r="N45" s="30"/>
       <c r="O45" s="30"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="47" t="s">
         <v>378</v>
       </c>
@@ -19756,7 +20125,7 @@
       <c r="N46" s="28"/>
       <c r="O46" s="28"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="47" t="s">
         <v>379</v>
       </c>
@@ -19777,7 +20146,7 @@
       <c r="N47" s="30"/>
       <c r="O47" s="30"/>
     </row>
-    <row r="48" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="68"/>
       <c r="B48" s="72"/>
       <c r="C48" s="28"/>
@@ -19794,7 +20163,7 @@
       <c r="N48" s="28"/>
       <c r="O48" s="28"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="73"/>
       <c r="B49" s="73"/>
       <c r="C49" s="73"/>
@@ -19811,7 +20180,7 @@
       <c r="N49" s="73"/>
       <c r="O49" s="73"/>
     </row>
-    <row r="50" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="23" t="s">
         <v>5</v>
       </c>
@@ -19830,7 +20199,7 @@
       <c r="N50" s="65"/>
       <c r="O50" s="66"/>
     </row>
-    <row r="51" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="24" t="s">
         <v>34</v>
       </c>
@@ -19849,7 +20218,7 @@
       <c r="N51" s="24"/>
       <c r="O51" s="25"/>
     </row>
-    <row r="52" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="24" t="s">
         <v>259</v>
       </c>
@@ -19868,7 +20237,7 @@
       <c r="N52" s="24"/>
       <c r="O52" s="25"/>
     </row>
-    <row r="53" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="24" t="s">
         <v>35</v>
       </c>
@@ -19887,7 +20256,7 @@
       <c r="N53" s="24"/>
       <c r="O53" s="25"/>
     </row>
-    <row r="54" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="58" t="s">
         <v>6</v>
       </c>
@@ -19910,7 +20279,7 @@
       <c r="N54" s="58"/>
       <c r="O54" s="58"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="29" t="s">
         <v>165</v>
       </c>
@@ -19921,7 +20290,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="29" t="s">
         <v>168</v>
       </c>
@@ -19932,7 +20301,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="29" t="s">
         <v>171</v>
       </c>
@@ -19943,7 +20312,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="29" t="s">
         <v>174</v>
       </c>
@@ -19954,7 +20323,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="29" t="s">
         <v>181</v>
       </c>
@@ -19965,7 +20334,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="29" t="s">
         <v>184</v>
       </c>
@@ -19976,7 +20345,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="29" t="s">
         <v>187</v>
       </c>
@@ -19987,7 +20356,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="29" t="s">
         <v>190</v>
       </c>
@@ -19998,7 +20367,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="29" t="s">
         <v>196</v>
       </c>
@@ -20009,7 +20378,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="29" t="s">
         <v>199</v>
       </c>
@@ -20020,7 +20389,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="29" t="s">
         <v>202</v>
       </c>
@@ -20031,7 +20400,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="29" t="s">
         <v>205</v>
       </c>
@@ -20042,7 +20411,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="29" t="s">
         <v>211</v>
       </c>
@@ -20053,7 +20422,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="29" t="s">
         <v>214</v>
       </c>
@@ -20064,7 +20433,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="29" t="s">
         <v>217</v>
       </c>
@@ -20075,7 +20444,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="29" t="s">
         <v>220</v>
       </c>
@@ -20110,40 +20479,40 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.88671875" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="65.140625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" style="21" customWidth="1"/>
+    <col min="1" max="1" width="65.109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="65.6640625" style="21" customWidth="1"/>
     <col min="3" max="3" width="25" style="21" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="21" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" style="21" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="194.85546875" style="21" customWidth="1"/>
-    <col min="9" max="9" width="140.140625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="194.88671875" style="21" customWidth="1"/>
+    <col min="9" max="9" width="140.109375" style="21" customWidth="1"/>
     <col min="10" max="10" width="11" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="99.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="99.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.33203125" style="21" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21" style="21" customWidth="1"/>
-    <col min="19" max="19" width="35.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="35.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.5546875" style="21" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="31" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="35.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="35.88671875" style="21" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="31" style="21" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.85546875" style="21"/>
+    <col min="25" max="16384" width="9.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="95" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>23</v>
       </c>
@@ -20168,7 +20537,7 @@
       <c r="T3" s="45"/>
       <c r="U3" s="45"/>
     </row>
-    <row r="4" spans="1:21" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>33</v>
       </c>
@@ -20193,7 +20562,7 @@
       <c r="T4" s="25"/>
       <c r="U4" s="25"/>
     </row>
-    <row r="5" spans="1:21" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>31</v>
       </c>
@@ -20217,7 +20586,7 @@
       <c r="T5" s="25"/>
       <c r="U5" s="25"/>
     </row>
-    <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>361</v>
       </c>
@@ -20225,7 +20594,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>362</v>
       </c>
@@ -20233,7 +20602,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>363</v>
       </c>
@@ -20241,7 +20610,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>240</v>
       </c>
@@ -20249,7 +20618,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>240</v>
       </c>
@@ -20258,7 +20627,7 @@
       </c>
       <c r="D10" s="48"/>
     </row>
-    <row r="11" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>240</v>
       </c>
@@ -20267,20 +20636,20 @@
       </c>
       <c r="D11" s="48"/>
     </row>
-    <row r="12" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="47"/>
     </row>
-    <row r="15" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="47" t="s">
         <v>548</v>
       </c>
@@ -20294,7 +20663,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="47" t="s">
         <v>536</v>
       </c>
@@ -20305,7 +20674,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="47"/>
       <c r="B17" s="21" t="s">
         <v>394</v>
@@ -20314,7 +20683,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="47"/>
       <c r="B18" s="21" t="s">
         <v>396</v>
@@ -20323,7 +20692,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="47"/>
       <c r="B19" s="21" t="s">
         <v>398</v>
@@ -20332,7 +20701,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="47"/>
       <c r="B20" s="21" t="s">
         <v>400</v>
@@ -20341,7 +20710,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="47"/>
       <c r="B21" s="21" t="s">
         <v>402</v>
@@ -20350,7 +20719,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="47"/>
       <c r="B22" s="21" t="s">
         <v>404</v>
@@ -20362,7 +20731,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="47"/>
       <c r="B23" s="21" t="s">
         <v>407</v>
@@ -20374,7 +20743,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="47"/>
       <c r="B24" s="21" t="s">
         <v>410</v>
@@ -20386,7 +20755,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="47"/>
       <c r="B25" s="21" t="s">
         <v>413</v>
@@ -20398,19 +20767,19 @@
         <v>415</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="51"/>
     </row>
-    <row r="34" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="51"/>
     </row>
-    <row r="35" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="51"/>
     </row>
-    <row r="36" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="51"/>
     </row>
-    <row r="37" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="52"/>
       <c r="B37" s="52"/>
       <c r="C37" s="52"/>
@@ -20432,7 +20801,7 @@
       <c r="T37" s="52"/>
       <c r="U37" s="52"/>
     </row>
-    <row r="38" spans="1:26" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="43" t="s">
         <v>0</v>
       </c>
@@ -20457,7 +20826,7 @@
       <c r="T38" s="45"/>
       <c r="U38" s="45"/>
     </row>
-    <row r="39" spans="1:26" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>30</v>
       </c>
@@ -20482,7 +20851,7 @@
       <c r="T39" s="25"/>
       <c r="U39" s="25"/>
     </row>
-    <row r="40" spans="1:26" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>256</v>
       </c>
@@ -20507,7 +20876,7 @@
       <c r="T40" s="25"/>
       <c r="U40" s="25"/>
     </row>
-    <row r="41" spans="1:26" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>257</v>
       </c>
@@ -20532,7 +20901,7 @@
       <c r="T41" s="25"/>
       <c r="U41" s="25"/>
     </row>
-    <row r="42" spans="1:26" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
         <v>258</v>
       </c>
@@ -20557,7 +20926,7 @@
       <c r="T42" s="25"/>
       <c r="U42" s="25"/>
     </row>
-    <row r="43" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="79" t="s">
         <v>364</v>
       </c>
@@ -20637,7 +21006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
         <v>416</v>
       </c>
@@ -20705,7 +21074,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="45" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="s">
         <v>431</v>
       </c>
@@ -20768,7 +21137,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="46" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="29" t="s">
         <v>441</v>
       </c>
@@ -20831,7 +21200,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="47" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="29"/>
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
@@ -20851,7 +21220,7 @@
       <c r="Q47" s="29"/>
       <c r="R47" s="29"/>
     </row>
-    <row r="48" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="29"/>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
@@ -20870,7 +21239,7 @@
       <c r="Q48" s="29"/>
       <c r="R48" s="29"/>
     </row>
-    <row r="49" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="29"/>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
@@ -20889,7 +21258,7 @@
       <c r="Q49" s="29"/>
       <c r="R49" s="29"/>
     </row>
-    <row r="50" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="29"/>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
@@ -20909,7 +21278,7 @@
       <c r="Q50" s="29"/>
       <c r="R50" s="29"/>
     </row>
-    <row r="51" spans="1:21" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="43" t="s">
         <v>29</v>
       </c>
@@ -20934,7 +21303,7 @@
       <c r="T51" s="45"/>
       <c r="U51" s="45"/>
     </row>
-    <row r="52" spans="1:21" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="24" t="s">
         <v>32</v>
       </c>
@@ -20959,7 +21328,7 @@
       <c r="T52" s="25"/>
       <c r="U52" s="25"/>
     </row>
-    <row r="53" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="47" t="s">
         <v>253</v>
       </c>
@@ -20984,7 +21353,7 @@
       <c r="T53" s="29"/>
       <c r="U53" s="29"/>
     </row>
-    <row r="54" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="47" t="s">
         <v>254</v>
       </c>
@@ -21009,7 +21378,7 @@
       <c r="T54" s="29"/>
       <c r="U54" s="29"/>
     </row>
-    <row r="55" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="47" t="s">
         <v>375</v>
       </c>
@@ -21036,7 +21405,7 @@
       <c r="T55" s="29"/>
       <c r="U55" s="29"/>
     </row>
-    <row r="56" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="47" t="s">
         <v>376</v>
       </c>
@@ -21063,7 +21432,7 @@
       <c r="T56" s="29"/>
       <c r="U56" s="29"/>
     </row>
-    <row r="57" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="47" t="s">
         <v>381</v>
       </c>
@@ -21090,7 +21459,7 @@
       <c r="T57" s="29"/>
       <c r="U57" s="29"/>
     </row>
-    <row r="58" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="47"/>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
@@ -21112,7 +21481,7 @@
       <c r="T58" s="29"/>
       <c r="U58" s="29"/>
     </row>
-    <row r="59" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="47" t="s">
         <v>377</v>
       </c>
@@ -21139,7 +21508,7 @@
       <c r="T59" s="29"/>
       <c r="U59" s="29"/>
     </row>
-    <row r="60" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="47" t="s">
         <v>377</v>
       </c>
@@ -21166,7 +21535,7 @@
       <c r="T60" s="29"/>
       <c r="U60" s="29"/>
     </row>
-    <row r="61" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="47" t="s">
         <v>377</v>
       </c>
@@ -21191,7 +21560,7 @@
       <c r="T61" s="29"/>
       <c r="U61" s="29"/>
     </row>
-    <row r="62" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="47" t="s">
         <v>377</v>
       </c>
@@ -21216,7 +21585,7 @@
       <c r="T62" s="29"/>
       <c r="U62" s="29"/>
     </row>
-    <row r="63" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="47" t="s">
         <v>377</v>
       </c>
@@ -21241,7 +21610,7 @@
       <c r="T63" s="29"/>
       <c r="U63" s="29"/>
     </row>
-    <row r="64" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="47" t="s">
         <v>378</v>
       </c>
@@ -21268,7 +21637,7 @@
       <c r="T64" s="29"/>
       <c r="U64" s="29"/>
     </row>
-    <row r="65" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="47" t="s">
         <v>379</v>
       </c>
@@ -21295,7 +21664,7 @@
       <c r="T65" s="29"/>
       <c r="U65" s="29"/>
     </row>
-    <row r="66" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="47" t="s">
         <v>379</v>
       </c>
@@ -21321,7 +21690,7 @@
       <c r="T66" s="29"/>
       <c r="U66" s="29"/>
     </row>
-    <row r="67" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="47" t="s">
         <v>379</v>
       </c>
@@ -21348,7 +21717,7 @@
       <c r="T67" s="48"/>
       <c r="U67" s="48"/>
     </row>
-    <row r="68" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="51"/>
       <c r="C68" s="48"/>
       <c r="D68" s="48"/>
@@ -21370,7 +21739,7 @@
       <c r="T68" s="48"/>
       <c r="U68" s="48"/>
     </row>
-    <row r="69" spans="1:25" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="43" t="s">
         <v>5</v>
       </c>
@@ -21396,7 +21765,7 @@
       <c r="U69" s="45"/>
       <c r="Y69" s="21"/>
     </row>
-    <row r="70" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
         <v>34</v>
       </c>
@@ -21421,7 +21790,7 @@
       <c r="T70" s="25"/>
       <c r="U70" s="25"/>
     </row>
-    <row r="71" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="24" t="s">
         <v>259</v>
       </c>
@@ -21446,7 +21815,7 @@
       <c r="T71" s="25"/>
       <c r="U71" s="25"/>
     </row>
-    <row r="72" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
         <v>35</v>
       </c>
@@ -21471,7 +21840,7 @@
       <c r="T72" s="25"/>
       <c r="U72" s="25"/>
     </row>
-    <row r="73" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="58" t="s">
         <v>6</v>
       </c>
@@ -21500,7 +21869,7 @@
       <c r="T73" s="58"/>
       <c r="U73" s="58"/>
     </row>
-    <row r="74" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="21" t="s">
         <v>425</v>
       </c>
@@ -21511,7 +21880,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="21" t="s">
         <v>428</v>
       </c>
@@ -21522,7 +21891,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="21" t="s">
         <v>437</v>
       </c>
@@ -21530,7 +21899,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="21" t="s">
         <v>439</v>
       </c>
@@ -21538,7 +21907,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="21" t="s">
         <v>447</v>
       </c>
@@ -21546,7 +21915,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="21" t="s">
         <v>449</v>
       </c>
@@ -21574,41 +21943,41 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="83.7109375" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="83.6640625" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.85546875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="59.85546875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.88671875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="59.88671875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" style="21" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="38.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="43.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.44140625" style="21" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="35" style="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="37.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.33203125" style="21" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21" style="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="60.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="59.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="60.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="59.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="89.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="88.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="83.7109375" style="21"/>
+    <col min="20" max="21" width="60.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="59.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="60.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="59.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="89.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="88.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="83.6640625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="95" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="3" spans="1:23" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>23</v>
       </c>
@@ -21635,7 +22004,7 @@
       <c r="V3" s="45"/>
       <c r="W3" s="45"/>
     </row>
-    <row r="4" spans="1:23" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>33</v>
       </c>
@@ -21662,7 +22031,7 @@
       <c r="V4" s="25"/>
       <c r="W4" s="25"/>
     </row>
-    <row r="5" spans="1:23" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>31</v>
       </c>
@@ -21688,7 +22057,7 @@
       <c r="V5" s="25"/>
       <c r="W5" s="25"/>
     </row>
-    <row r="6" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="47" t="s">
         <v>361</v>
       </c>
@@ -21696,7 +22065,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="47" t="s">
         <v>362</v>
       </c>
@@ -21704,7 +22073,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="47" t="s">
         <v>363</v>
       </c>
@@ -21712,7 +22081,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="47" t="s">
         <v>240</v>
       </c>
@@ -21720,7 +22089,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>240</v>
       </c>
@@ -21729,7 +22098,7 @@
       </c>
       <c r="D10" s="48"/>
     </row>
-    <row r="11" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>240</v>
       </c>
@@ -21738,28 +22107,28 @@
       </c>
       <c r="D11" s="48"/>
     </row>
-    <row r="12" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="47" t="s">
         <v>252</v>
       </c>
       <c r="D12" s="48"/>
     </row>
-    <row r="14" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="51"/>
     </row>
-    <row r="15" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="51"/>
     </row>
-    <row r="16" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="51"/>
     </row>
-    <row r="17" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="51"/>
     </row>
-    <row r="18" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="51"/>
     </row>
-    <row r="19" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="52"/>
       <c r="B19" s="52"/>
       <c r="C19" s="52"/>
@@ -21784,7 +22153,7 @@
       <c r="V19" s="52"/>
       <c r="W19" s="52"/>
     </row>
-    <row r="20" spans="1:25" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="43" t="s">
         <v>0</v>
       </c>
@@ -21811,7 +22180,7 @@
       <c r="V20" s="44"/>
       <c r="W20" s="45"/>
     </row>
-    <row r="21" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>30</v>
       </c>
@@ -21838,7 +22207,7 @@
       <c r="V21" s="24"/>
       <c r="W21" s="25"/>
     </row>
-    <row r="22" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>256</v>
       </c>
@@ -21865,7 +22234,7 @@
       <c r="V22" s="24"/>
       <c r="W22" s="25"/>
     </row>
-    <row r="23" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>257</v>
       </c>
@@ -21892,7 +22261,7 @@
       <c r="V23" s="24"/>
       <c r="W23" s="25"/>
     </row>
-    <row r="24" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>258</v>
       </c>
@@ -21919,7 +22288,7 @@
       <c r="V24" s="24"/>
       <c r="W24" s="25"/>
     </row>
-    <row r="25" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="79" t="s">
         <v>364</v>
       </c>
@@ -21996,7 +22365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="59" t="s">
         <v>473</v>
       </c>
@@ -22073,7 +22442,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="59" t="s">
         <v>486</v>
       </c>
@@ -22150,7 +22519,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="59" t="s">
         <v>497</v>
       </c>
@@ -22227,7 +22596,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="59" t="s">
         <v>508</v>
       </c>
@@ -22304,7 +22673,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="59"/>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -22329,7 +22698,7 @@
       <c r="V30" s="29"/>
       <c r="W30" s="29"/>
     </row>
-    <row r="31" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="42"/>
       <c r="B31" s="42"/>
       <c r="C31" s="42"/>
@@ -22354,7 +22723,7 @@
       <c r="V31" s="42"/>
       <c r="W31" s="42"/>
     </row>
-    <row r="32" spans="1:25" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="43" t="s">
         <v>29</v>
       </c>
@@ -22381,7 +22750,7 @@
       <c r="V32" s="44"/>
       <c r="W32" s="45"/>
     </row>
-    <row r="33" spans="1:23" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
         <v>32</v>
       </c>
@@ -22408,7 +22777,7 @@
       <c r="V33" s="24"/>
       <c r="W33" s="25"/>
     </row>
-    <row r="34" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="47" t="s">
         <v>253</v>
       </c>
@@ -22437,7 +22806,7 @@
       <c r="V34" s="29"/>
       <c r="W34" s="29"/>
     </row>
-    <row r="35" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="47" t="s">
         <v>254</v>
       </c>
@@ -22466,7 +22835,7 @@
       <c r="V35" s="29"/>
       <c r="W35" s="29"/>
     </row>
-    <row r="36" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
         <v>375</v>
       </c>
@@ -22495,7 +22864,7 @@
       <c r="V36" s="29"/>
       <c r="W36" s="29"/>
     </row>
-    <row r="37" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="47" t="s">
         <v>376</v>
       </c>
@@ -22524,7 +22893,7 @@
       <c r="V37" s="29"/>
       <c r="W37" s="29"/>
     </row>
-    <row r="38" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
         <v>381</v>
       </c>
@@ -22552,7 +22921,7 @@
       <c r="U38" s="29"/>
       <c r="V38" s="29"/>
     </row>
-    <row r="39" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="47"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
@@ -22576,7 +22945,7 @@
       <c r="U39" s="29"/>
       <c r="V39" s="29"/>
     </row>
-    <row r="40" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="47" t="s">
         <v>377</v>
       </c>
@@ -22604,7 +22973,7 @@
       <c r="U40" s="29"/>
       <c r="V40" s="29"/>
     </row>
-    <row r="41" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="47" t="s">
         <v>377</v>
       </c>
@@ -22632,7 +23001,7 @@
       <c r="U41" s="29"/>
       <c r="V41" s="29"/>
     </row>
-    <row r="42" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>377</v>
       </c>
@@ -22660,7 +23029,7 @@
       <c r="U42" s="29"/>
       <c r="V42" s="29"/>
     </row>
-    <row r="43" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="47" t="s">
         <v>377</v>
       </c>
@@ -22686,7 +23055,7 @@
       <c r="U43" s="29"/>
       <c r="V43" s="29"/>
     </row>
-    <row r="44" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
         <v>377</v>
       </c>
@@ -22712,7 +23081,7 @@
       <c r="U44" s="29"/>
       <c r="V44" s="29"/>
     </row>
-    <row r="45" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="47" t="s">
         <v>378</v>
       </c>
@@ -22740,7 +23109,7 @@
       <c r="U45" s="29"/>
       <c r="V45" s="29"/>
     </row>
-    <row r="46" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="47" t="s">
         <v>379</v>
       </c>
@@ -22769,7 +23138,7 @@
       <c r="V46" s="29"/>
       <c r="W46" s="29"/>
     </row>
-    <row r="47" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
         <v>379</v>
       </c>
@@ -22798,7 +23167,7 @@
       <c r="V47" s="29"/>
       <c r="W47" s="29"/>
     </row>
-    <row r="48" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="47" t="s">
         <v>379</v>
       </c>
@@ -22827,7 +23196,7 @@
       <c r="V48" s="29"/>
       <c r="W48" s="29"/>
     </row>
-    <row r="49" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
         <v>379</v>
       </c>
@@ -22856,7 +23225,7 @@
       <c r="V49" s="29"/>
       <c r="W49" s="29"/>
     </row>
-    <row r="50" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
         <v>379</v>
       </c>
@@ -22885,7 +23254,7 @@
       <c r="V50" s="29"/>
       <c r="W50" s="29"/>
     </row>
-    <row r="51" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
         <v>379</v>
       </c>
@@ -22914,7 +23283,7 @@
       <c r="V51" s="29"/>
       <c r="W51" s="29"/>
     </row>
-    <row r="52" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
         <v>379</v>
       </c>
@@ -22943,7 +23312,7 @@
       <c r="V52" s="29"/>
       <c r="W52" s="29"/>
     </row>
-    <row r="53" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
         <v>379</v>
       </c>
@@ -22972,7 +23341,7 @@
       <c r="V53" s="29"/>
       <c r="W53" s="29"/>
     </row>
-    <row r="54" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="47" t="s">
         <v>379</v>
       </c>
@@ -23001,7 +23370,7 @@
       <c r="V54" s="29"/>
       <c r="W54" s="29"/>
     </row>
-    <row r="55" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="48"/>
       <c r="B55" s="48"/>
       <c r="C55" s="48"/>
@@ -23026,7 +23395,7 @@
       <c r="V55" s="48"/>
       <c r="W55" s="48"/>
     </row>
-    <row r="56" spans="1:23" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" s="46" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="43" t="s">
         <v>5</v>
       </c>
@@ -23053,7 +23422,7 @@
       <c r="V56" s="44"/>
       <c r="W56" s="45"/>
     </row>
-    <row r="57" spans="1:23" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="24" t="s">
         <v>34</v>
       </c>
@@ -23080,7 +23449,7 @@
       <c r="V57" s="24"/>
       <c r="W57" s="25"/>
     </row>
-    <row r="58" spans="1:23" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="24" t="s">
         <v>259</v>
       </c>
@@ -23107,7 +23476,7 @@
       <c r="V58" s="24"/>
       <c r="W58" s="25"/>
     </row>
-    <row r="59" spans="1:23" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="24" t="s">
         <v>35</v>
       </c>
@@ -23134,7 +23503,7 @@
       <c r="V59" s="24"/>
       <c r="W59" s="25"/>
     </row>
-    <row r="60" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="58" t="s">
         <v>6</v>
       </c>
@@ -23165,7 +23534,7 @@
       <c r="V60" s="58"/>
       <c r="W60" s="58"/>
     </row>
-    <row r="61" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="21" t="s">
         <v>550</v>
       </c>
@@ -23176,7 +23545,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="21" t="s">
         <v>553</v>
       </c>
@@ -23187,7 +23556,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="21" t="s">
         <v>556</v>
       </c>
@@ -23198,7 +23567,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="21" t="s">
         <v>559</v>
       </c>
@@ -23209,7 +23578,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="21" t="s">
         <v>562</v>
       </c>
@@ -23220,7 +23589,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="21" t="s">
         <v>565</v>
       </c>
@@ -23231,7 +23600,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="21" t="s">
         <v>568</v>
       </c>
@@ -23242,7 +23611,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="21" t="s">
         <v>571</v>
       </c>
@@ -23283,13 +23652,13 @@
       <selection activeCell="B2" sqref="B2:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>284</v>
       </c>
@@ -23297,7 +23666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>270</v>
       </c>
@@ -23305,7 +23674,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>235</v>
       </c>
@@ -23313,7 +23682,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -23321,7 +23690,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>296</v>
       </c>
@@ -23329,7 +23698,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>333</v>
       </c>
@@ -23337,7 +23706,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>298</v>
       </c>
@@ -23345,7 +23714,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>299</v>
       </c>
@@ -23353,7 +23722,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>285</v>
       </c>
@@ -23361,7 +23730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>286</v>
       </c>
@@ -23369,7 +23738,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>287</v>
       </c>
@@ -23377,7 +23746,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>288</v>
       </c>
@@ -23385,7 +23754,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>289</v>
       </c>
@@ -23393,7 +23762,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>290</v>
       </c>
@@ -23401,7 +23770,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>86</v>
       </c>
@@ -23409,7 +23778,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>291</v>
       </c>
@@ -23417,7 +23786,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>292</v>
       </c>
@@ -23425,7 +23794,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>293</v>
       </c>
@@ -23433,7 +23802,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>294</v>
       </c>
@@ -23441,7 +23810,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>295</v>
       </c>
@@ -23449,7 +23818,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>297</v>
       </c>
@@ -23457,7 +23826,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>300</v>
       </c>
@@ -23465,7 +23834,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>301</v>
       </c>
@@ -23473,7 +23842,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>302</v>
       </c>
@@ -23481,172 +23850,172 @@
         <v>358</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>337</v>
       </c>
